--- a/Template_Sample.xlsx
+++ b/Template_Sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>CÔNG TY CỔ PHẦN TIN HỌC LẠC VIỆT</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Phụ cấp cơm</t>
   </si>
   <si>
-    <t>Phụ cấp điện thoại</t>
-  </si>
-  <si>
-    <t>Phụ cấp nhà ở</t>
-  </si>
-  <si>
     <t>Mã</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>Số quyết định</t>
   </si>
   <si>
-    <t>[EA.Type]</t>
-  </si>
-  <si>
     <t>Số tiền</t>
   </si>
   <si>
@@ -135,6 +126,12 @@
   </si>
   <si>
     <t>Nguyên tệ</t>
+  </si>
+  <si>
+    <t>[EA.MaPC.FixAmount]</t>
+  </si>
+  <si>
+    <t>Hợp đồng lao động</t>
   </si>
 </sst>
 </file>
@@ -193,7 +190,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,18 +229,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -276,14 +267,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -293,73 +324,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +704,7 @@
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
@@ -672,13 +716,9 @@
     <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +728,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -698,326 +738,237 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="12" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="I6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="N6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="24" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O8" t="s">
+      <c r="S7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P8" t="s">
+      <c r="T7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="U7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" t="s">
-        <v>18</v>
-      </c>
-      <c r="V8" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" t="s">
-        <v>16</v>
-      </c>
-      <c r="X8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="V7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="A3:Z3"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:Z4"/>
+  <mergeCells count="7">
+    <mergeCell ref="S4:V5"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="F4:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
